--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
@@ -382,10 +382,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -871,9 +873,11 @@
         <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>1024</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">

--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
@@ -876,7 +876,7 @@
         <v>39</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>1024</v>
+        <v>4095</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>

--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t xml:space="preserve">Judo</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">java.time.OffsetDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMESTAMP WITH TIMEZONE</t>
   </si>
   <si>
     <t xml:space="preserve">java.time.ZonedDateTime</t>
@@ -449,7 +452,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -463,7 +466,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -491,7 +494,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -499,21 +502,21 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -524,21 +527,21 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -547,141 +550,141 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="n">
@@ -691,71 +694,71 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="3" t="n">
@@ -765,15 +768,15 @@
         <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>255</v>
@@ -781,99 +784,99 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>4095</v>
@@ -881,7 +884,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t xml:space="preserve">Judo</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">JdbcType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SqlType</t>
   </si>
   <si>
     <t xml:space="preserve">java.util.Date</t>
@@ -379,18 +382,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1019"/>
+  <dimension ref="A1:G1019"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="21.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -412,279 +413,339 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>2014</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>2014</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>2014</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>2014</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="n">
@@ -694,71 +755,86 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="3" t="n">
@@ -768,15 +844,18 @@
         <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>255</v>
@@ -784,99 +863,120 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>4095</v>
@@ -884,7 +984,10 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -894,6 +997,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
@@ -902,6 +1006,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
@@ -910,6 +1015,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
@@ -918,6 +1024,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
@@ -926,6 +1033,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
@@ -934,6 +1042,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
@@ -942,6 +1051,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
@@ -950,6 +1060,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
@@ -958,6 +1069,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
@@ -966,6 +1078,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
@@ -974,6 +1087,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
@@ -982,6 +1096,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5"/>
@@ -990,6 +1105,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
@@ -998,6 +1114,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5"/>
@@ -1006,6 +1123,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5"/>
@@ -1014,6 +1132,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5"/>
@@ -1022,6 +1141,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5"/>
@@ -1030,6 +1150,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5"/>
@@ -1038,6 +1159,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
@@ -1046,6 +1168,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5"/>
@@ -1054,6 +1177,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5"/>
@@ -1062,6 +1186,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5"/>
@@ -1070,6 +1195,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5"/>
@@ -1078,6 +1204,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5"/>
@@ -1086,6 +1213,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5"/>
@@ -1094,6 +1222,7 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
@@ -1102,6 +1231,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5"/>
@@ -1110,6 +1240,7 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
@@ -1118,6 +1249,7 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
@@ -1126,6 +1258,7 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
@@ -1134,6 +1267,7 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5"/>
@@ -1142,6 +1276,7 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5"/>
@@ -1150,6 +1285,7 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5"/>
@@ -1158,6 +1294,7 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5"/>
@@ -1166,6 +1303,7 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5"/>
@@ -1174,6 +1312,7 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5"/>
@@ -1182,6 +1321,7 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5"/>
@@ -1190,6 +1330,7 @@
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5"/>
@@ -1198,6 +1339,7 @@
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5"/>
@@ -1206,6 +1348,7 @@
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5"/>
@@ -1214,6 +1357,7 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="5"/>
@@ -1222,6 +1366,7 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5"/>
@@ -1230,6 +1375,7 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="5"/>
@@ -1238,6 +1384,7 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5"/>
@@ -1246,6 +1393,7 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="5"/>
@@ -1254,6 +1402,7 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5"/>
@@ -1262,6 +1411,7 @@
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="5"/>
@@ -1270,6 +1420,7 @@
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5"/>
@@ -1278,6 +1429,7 @@
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5"/>
@@ -1286,6 +1438,7 @@
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5"/>
@@ -1294,6 +1447,7 @@
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5"/>
@@ -1302,6 +1456,7 @@
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5"/>
@@ -1310,6 +1465,7 @@
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5"/>
@@ -1318,6 +1474,7 @@
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5"/>
@@ -1326,6 +1483,7 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5"/>
@@ -1334,6 +1492,7 @@
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5"/>
@@ -1342,6 +1501,7 @@
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5"/>
@@ -1350,6 +1510,7 @@
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5"/>
@@ -1358,6 +1519,7 @@
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5"/>
@@ -1366,6 +1528,7 @@
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5"/>
@@ -1374,6 +1537,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5"/>
@@ -1382,6 +1546,7 @@
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5"/>
@@ -1390,6 +1555,7 @@
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5"/>
@@ -1398,6 +1564,7 @@
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5"/>
@@ -1406,6 +1573,7 @@
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5"/>
@@ -1414,6 +1582,7 @@
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5"/>
@@ -1422,6 +1591,7 @@
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5"/>
@@ -1430,6 +1600,7 @@
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5"/>
@@ -1438,6 +1609,7 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5"/>
@@ -1446,6 +1618,7 @@
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5"/>
@@ -1454,6 +1627,7 @@
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5"/>
@@ -1462,6 +1636,7 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5"/>
@@ -1470,6 +1645,7 @@
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5"/>
@@ -1478,6 +1654,7 @@
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5"/>
@@ -1486,6 +1663,7 @@
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5"/>
@@ -1494,6 +1672,7 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5"/>
@@ -1502,6 +1681,7 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5"/>
@@ -1510,6 +1690,7 @@
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5"/>
@@ -1518,6 +1699,7 @@
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5"/>
@@ -1526,6 +1708,7 @@
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5"/>
@@ -1534,6 +1717,7 @@
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5"/>
@@ -1542,6 +1726,7 @@
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5"/>
@@ -1550,6 +1735,7 @@
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5"/>
@@ -1558,6 +1744,7 @@
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5"/>
@@ -1566,6 +1753,7 @@
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5"/>
@@ -1574,6 +1762,7 @@
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5"/>
@@ -1582,6 +1771,7 @@
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5"/>
@@ -1590,6 +1780,7 @@
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5"/>
@@ -1598,6 +1789,7 @@
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5"/>
@@ -1606,6 +1798,7 @@
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5"/>
@@ -1614,6 +1807,7 @@
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5"/>
@@ -1622,6 +1816,7 @@
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5"/>
@@ -1630,6 +1825,7 @@
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5"/>
@@ -1638,6 +1834,7 @@
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5"/>
@@ -1646,6 +1843,7 @@
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5"/>
@@ -1654,6 +1852,7 @@
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5"/>
@@ -1662,6 +1861,7 @@
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5"/>
@@ -1670,6 +1870,7 @@
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5"/>
@@ -1678,6 +1879,7 @@
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5"/>
@@ -1686,6 +1888,7 @@
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5"/>
@@ -1694,6 +1897,7 @@
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5"/>
@@ -1702,6 +1906,7 @@
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5"/>
@@ -1710,6 +1915,7 @@
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5"/>
@@ -1718,6 +1924,7 @@
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5"/>
@@ -1726,6 +1933,7 @@
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5"/>
@@ -1734,6 +1942,7 @@
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5"/>
@@ -1742,6 +1951,7 @@
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5"/>
@@ -1750,6 +1960,7 @@
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5"/>
@@ -1758,6 +1969,7 @@
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5"/>
@@ -1766,6 +1978,7 @@
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5"/>
@@ -1774,6 +1987,7 @@
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5"/>
@@ -1782,6 +1996,7 @@
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5"/>
@@ -1790,6 +2005,7 @@
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5"/>
@@ -1798,6 +2014,7 @@
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5"/>
@@ -1806,6 +2023,7 @@
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5"/>
@@ -1814,6 +2032,7 @@
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5"/>
@@ -1822,6 +2041,7 @@
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5"/>
@@ -1830,6 +2050,7 @@
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5"/>
@@ -1838,6 +2059,7 @@
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5"/>
@@ -1846,6 +2068,7 @@
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5"/>
@@ -1854,6 +2077,7 @@
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5"/>
@@ -1862,6 +2086,7 @@
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5"/>
@@ -1870,6 +2095,7 @@
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5"/>
@@ -1878,6 +2104,7 @@
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5"/>
@@ -1886,6 +2113,7 @@
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5"/>
@@ -1894,6 +2122,7 @@
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5"/>
@@ -1902,6 +2131,7 @@
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5"/>
@@ -1910,6 +2140,7 @@
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5"/>
@@ -1918,6 +2149,7 @@
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5"/>
@@ -1926,6 +2158,7 @@
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5"/>
@@ -1934,6 +2167,7 @@
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5"/>
@@ -1942,6 +2176,7 @@
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5"/>
@@ -1950,6 +2185,7 @@
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5"/>
@@ -1958,6 +2194,7 @@
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5"/>
@@ -1966,6 +2203,7 @@
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5"/>
@@ -1974,6 +2212,7 @@
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5"/>
@@ -1982,6 +2221,7 @@
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5"/>
@@ -1990,6 +2230,7 @@
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5"/>
@@ -1998,6 +2239,7 @@
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5"/>
@@ -2006,6 +2248,7 @@
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5"/>
@@ -2014,6 +2257,7 @@
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5"/>
@@ -2022,6 +2266,7 @@
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5"/>
@@ -2030,6 +2275,7 @@
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5"/>
@@ -2038,6 +2284,7 @@
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5"/>
@@ -2046,6 +2293,7 @@
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5"/>
@@ -2054,6 +2302,7 @@
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5"/>
@@ -2062,6 +2311,7 @@
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5"/>
@@ -2070,6 +2320,7 @@
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5"/>
@@ -2078,6 +2329,7 @@
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5"/>
@@ -2086,6 +2338,7 @@
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5"/>
@@ -2094,6 +2347,7 @@
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5"/>
@@ -2102,6 +2356,7 @@
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5"/>
@@ -2110,6 +2365,7 @@
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5"/>
@@ -2118,6 +2374,7 @@
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5"/>
@@ -2126,6 +2383,7 @@
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5"/>
@@ -2134,6 +2392,7 @@
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5"/>
@@ -2142,6 +2401,7 @@
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5"/>
@@ -2150,6 +2410,7 @@
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5"/>
@@ -2158,6 +2419,7 @@
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5"/>
@@ -2166,6 +2428,7 @@
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5"/>
@@ -2174,6 +2437,7 @@
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5"/>
@@ -2182,6 +2446,7 @@
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5"/>
@@ -2190,6 +2455,7 @@
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5"/>
@@ -2198,6 +2464,7 @@
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5"/>
@@ -2206,6 +2473,7 @@
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5"/>
@@ -2214,6 +2482,7 @@
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5"/>
@@ -2222,6 +2491,7 @@
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5"/>
@@ -2230,6 +2500,7 @@
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5"/>
@@ -2238,6 +2509,7 @@
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5"/>
@@ -2246,6 +2518,7 @@
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5"/>
@@ -2254,6 +2527,7 @@
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5"/>
@@ -2262,6 +2536,7 @@
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5"/>
@@ -2270,6 +2545,7 @@
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5"/>
@@ -2278,6 +2554,7 @@
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5"/>
@@ -2286,6 +2563,7 @@
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5"/>
@@ -2294,6 +2572,7 @@
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5"/>
@@ -2302,6 +2581,7 @@
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5"/>
@@ -2310,6 +2590,7 @@
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5"/>
@@ -2318,6 +2599,7 @@
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5"/>
@@ -2326,6 +2608,7 @@
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5"/>
@@ -2334,6 +2617,7 @@
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5"/>
@@ -2342,6 +2626,7 @@
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5"/>
@@ -2350,6 +2635,7 @@
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5"/>
@@ -2358,6 +2644,7 @@
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5"/>
@@ -2366,6 +2653,7 @@
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5"/>
@@ -2374,6 +2662,7 @@
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5"/>
@@ -2382,6 +2671,7 @@
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5"/>
@@ -2390,6 +2680,7 @@
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5"/>
@@ -2398,6 +2689,7 @@
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5"/>
@@ -2406,6 +2698,7 @@
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5"/>
@@ -2414,6 +2707,7 @@
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5"/>
@@ -2422,6 +2716,7 @@
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5"/>
@@ -2430,6 +2725,7 @@
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5"/>
@@ -2438,6 +2734,7 @@
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5"/>
@@ -2446,6 +2743,7 @@
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5"/>
@@ -2454,6 +2752,7 @@
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5"/>
@@ -2462,6 +2761,7 @@
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5"/>
@@ -2470,6 +2770,7 @@
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5"/>
@@ -2478,6 +2779,7 @@
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5"/>
@@ -2486,6 +2788,7 @@
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5"/>
@@ -2494,6 +2797,7 @@
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5"/>
@@ -2502,6 +2806,7 @@
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5"/>
@@ -2510,6 +2815,7 @@
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5"/>
@@ -2518,6 +2824,7 @@
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5"/>
@@ -2526,6 +2833,7 @@
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5"/>
@@ -2534,6 +2842,7 @@
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5"/>
@@ -2542,6 +2851,7 @@
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5"/>
@@ -2550,6 +2860,7 @@
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5"/>
@@ -2558,6 +2869,7 @@
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5"/>
@@ -2566,6 +2878,7 @@
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5"/>
@@ -2574,6 +2887,7 @@
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5"/>
@@ -2582,6 +2896,7 @@
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
+      <c r="G246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5"/>
@@ -2590,6 +2905,7 @@
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
+      <c r="G247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5"/>
@@ -2598,6 +2914,7 @@
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5"/>
@@ -2606,6 +2923,7 @@
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5"/>
@@ -2614,6 +2932,7 @@
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5"/>
@@ -2622,6 +2941,7 @@
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5"/>
@@ -2630,6 +2950,7 @@
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5"/>
@@ -2638,6 +2959,7 @@
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5"/>
@@ -2646,6 +2968,7 @@
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5"/>
@@ -2654,6 +2977,7 @@
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5"/>
@@ -2662,6 +2986,7 @@
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
+      <c r="G256" s="4"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5"/>
@@ -2670,6 +2995,7 @@
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
+      <c r="G257" s="4"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5"/>
@@ -2678,6 +3004,7 @@
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
+      <c r="G258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5"/>
@@ -2686,6 +3013,7 @@
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
+      <c r="G259" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5"/>
@@ -2694,6 +3022,7 @@
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
+      <c r="G260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5"/>
@@ -2702,6 +3031,7 @@
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
+      <c r="G261" s="4"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5"/>
@@ -2710,6 +3040,7 @@
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
+      <c r="G262" s="4"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5"/>
@@ -2718,6 +3049,7 @@
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
+      <c r="G263" s="4"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5"/>
@@ -2726,6 +3058,7 @@
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
+      <c r="G264" s="4"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5"/>
@@ -2734,6 +3067,7 @@
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
+      <c r="G265" s="4"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5"/>
@@ -2742,6 +3076,7 @@
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
+      <c r="G266" s="4"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="5"/>
@@ -2750,6 +3085,7 @@
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
+      <c r="G267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5"/>
@@ -2758,6 +3094,7 @@
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
+      <c r="G268" s="4"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5"/>
@@ -2766,6 +3103,7 @@
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
+      <c r="G269" s="4"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5"/>
@@ -2774,6 +3112,7 @@
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
+      <c r="G270" s="4"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5"/>
@@ -2782,6 +3121,7 @@
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
+      <c r="G271" s="4"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5"/>
@@ -2790,6 +3130,7 @@
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
+      <c r="G272" s="4"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5"/>
@@ -2798,6 +3139,7 @@
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
+      <c r="G273" s="4"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5"/>
@@ -2806,6 +3148,7 @@
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
+      <c r="G274" s="4"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5"/>
@@ -2814,6 +3157,7 @@
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
+      <c r="G275" s="4"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5"/>
@@ -2822,6 +3166,7 @@
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
+      <c r="G276" s="4"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5"/>
@@ -2830,6 +3175,7 @@
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
+      <c r="G277" s="4"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5"/>
@@ -2838,6 +3184,7 @@
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
+      <c r="G278" s="4"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="5"/>
@@ -2846,6 +3193,7 @@
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
+      <c r="G279" s="4"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5"/>
@@ -2854,6 +3202,7 @@
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
+      <c r="G280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5"/>
@@ -2862,6 +3211,7 @@
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
+      <c r="G281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5"/>
@@ -2870,6 +3220,7 @@
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
+      <c r="G282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5"/>
@@ -2878,6 +3229,7 @@
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
+      <c r="G283" s="4"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5"/>
@@ -2886,6 +3238,7 @@
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
+      <c r="G284" s="4"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5"/>
@@ -2894,6 +3247,7 @@
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
+      <c r="G285" s="4"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5"/>
@@ -2902,6 +3256,7 @@
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
+      <c r="G286" s="4"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5"/>
@@ -2910,6 +3265,7 @@
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
+      <c r="G287" s="4"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5"/>
@@ -2918,6 +3274,7 @@
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
+      <c r="G288" s="4"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5"/>
@@ -2926,6 +3283,7 @@
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
+      <c r="G289" s="4"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5"/>
@@ -2934,6 +3292,7 @@
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
+      <c r="G290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5"/>
@@ -2942,6 +3301,7 @@
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
+      <c r="G291" s="4"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5"/>
@@ -2950,6 +3310,7 @@
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
+      <c r="G292" s="4"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5"/>
@@ -2958,6 +3319,7 @@
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
+      <c r="G293" s="4"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5"/>
@@ -2966,6 +3328,7 @@
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
+      <c r="G294" s="4"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5"/>
@@ -2974,6 +3337,7 @@
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
+      <c r="G295" s="4"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5"/>
@@ -2982,6 +3346,7 @@
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
+      <c r="G296" s="4"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5"/>
@@ -2990,6 +3355,7 @@
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
+      <c r="G297" s="4"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5"/>
@@ -2998,6 +3364,7 @@
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
+      <c r="G298" s="4"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5"/>
@@ -3006,6 +3373,7 @@
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
+      <c r="G299" s="4"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="5"/>
@@ -3014,6 +3382,7 @@
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
+      <c r="G300" s="4"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5"/>
@@ -3022,6 +3391,7 @@
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
+      <c r="G301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5"/>
@@ -3030,6 +3400,7 @@
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
+      <c r="G302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5"/>
@@ -3038,6 +3409,7 @@
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
+      <c r="G303" s="4"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5"/>
@@ -3046,6 +3418,7 @@
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
+      <c r="G304" s="4"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5"/>
@@ -3054,6 +3427,7 @@
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
+      <c r="G305" s="4"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5"/>
@@ -3062,6 +3436,7 @@
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
+      <c r="G306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5"/>
@@ -3070,6 +3445,7 @@
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
+      <c r="G307" s="4"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="5"/>
@@ -3078,6 +3454,7 @@
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
+      <c r="G308" s="4"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5"/>
@@ -3086,6 +3463,7 @@
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5"/>
@@ -3094,6 +3472,7 @@
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
+      <c r="G310" s="4"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5"/>
@@ -3102,6 +3481,7 @@
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
+      <c r="G311" s="4"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5"/>
@@ -3110,6 +3490,7 @@
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
+      <c r="G312" s="4"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5"/>
@@ -3118,6 +3499,7 @@
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
+      <c r="G313" s="4"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5"/>
@@ -3126,6 +3508,7 @@
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
+      <c r="G314" s="4"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5"/>
@@ -3134,6 +3517,7 @@
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
+      <c r="G315" s="4"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5"/>
@@ -3142,6 +3526,7 @@
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
+      <c r="G316" s="4"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5"/>
@@ -3150,6 +3535,7 @@
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5"/>
@@ -3158,6 +3544,7 @@
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
+      <c r="G318" s="4"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5"/>
@@ -3166,6 +3553,7 @@
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
+      <c r="G319" s="4"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5"/>
@@ -3174,6 +3562,7 @@
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
+      <c r="G320" s="4"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5"/>
@@ -3182,6 +3571,7 @@
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
+      <c r="G321" s="4"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5"/>
@@ -3190,6 +3580,7 @@
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
+      <c r="G322" s="4"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5"/>
@@ -3198,6 +3589,7 @@
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
+      <c r="G323" s="4"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5"/>
@@ -3206,6 +3598,7 @@
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
+      <c r="G324" s="4"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5"/>
@@ -3214,6 +3607,7 @@
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
+      <c r="G325" s="4"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5"/>
@@ -3222,6 +3616,7 @@
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
+      <c r="G326" s="4"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5"/>
@@ -3230,6 +3625,7 @@
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
+      <c r="G327" s="4"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5"/>
@@ -3238,6 +3634,7 @@
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
+      <c r="G328" s="4"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5"/>
@@ -3246,6 +3643,7 @@
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
+      <c r="G329" s="4"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5"/>
@@ -3254,6 +3652,7 @@
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
+      <c r="G330" s="4"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5"/>
@@ -3262,6 +3661,7 @@
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
+      <c r="G331" s="4"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5"/>
@@ -3270,6 +3670,7 @@
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
+      <c r="G332" s="4"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5"/>
@@ -3278,6 +3679,7 @@
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
+      <c r="G333" s="4"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5"/>
@@ -3286,6 +3688,7 @@
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
+      <c r="G334" s="4"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5"/>
@@ -3294,6 +3697,7 @@
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
+      <c r="G335" s="4"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5"/>
@@ -3302,6 +3706,7 @@
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
+      <c r="G336" s="4"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5"/>
@@ -3310,6 +3715,7 @@
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
+      <c r="G337" s="4"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5"/>
@@ -3318,6 +3724,7 @@
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
+      <c r="G338" s="4"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5"/>
@@ -3326,6 +3733,7 @@
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
+      <c r="G339" s="4"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5"/>
@@ -3334,6 +3742,7 @@
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
+      <c r="G340" s="4"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5"/>
@@ -3342,6 +3751,7 @@
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
+      <c r="G341" s="4"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5"/>
@@ -3350,6 +3760,7 @@
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
+      <c r="G342" s="4"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5"/>
@@ -3358,6 +3769,7 @@
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
+      <c r="G343" s="4"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5"/>
@@ -3366,6 +3778,7 @@
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
+      <c r="G344" s="4"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5"/>
@@ -3374,6 +3787,7 @@
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
+      <c r="G345" s="4"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5"/>
@@ -3382,6 +3796,7 @@
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
+      <c r="G346" s="4"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5"/>
@@ -3390,6 +3805,7 @@
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
+      <c r="G347" s="4"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5"/>
@@ -3398,6 +3814,7 @@
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
+      <c r="G348" s="4"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5"/>
@@ -3406,6 +3823,7 @@
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
+      <c r="G349" s="4"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5"/>
@@ -3414,6 +3832,7 @@
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
+      <c r="G350" s="4"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5"/>
@@ -3422,6 +3841,7 @@
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
+      <c r="G351" s="4"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="5"/>
@@ -3430,6 +3850,7 @@
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
+      <c r="G352" s="4"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5"/>
@@ -3438,6 +3859,7 @@
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
+      <c r="G353" s="4"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="5"/>
@@ -3446,6 +3868,7 @@
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
+      <c r="G354" s="4"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="5"/>
@@ -3454,6 +3877,7 @@
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
+      <c r="G355" s="4"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="5"/>
@@ -3462,6 +3886,7 @@
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
+      <c r="G356" s="4"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="5"/>
@@ -3470,6 +3895,7 @@
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
+      <c r="G357" s="4"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="5"/>
@@ -3478,6 +3904,7 @@
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
+      <c r="G358" s="4"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="5"/>
@@ -3486,6 +3913,7 @@
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
+      <c r="G359" s="4"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="5"/>
@@ -3494,6 +3922,7 @@
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
+      <c r="G360" s="4"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="5"/>
@@ -3502,6 +3931,7 @@
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
+      <c r="G361" s="4"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5"/>
@@ -3510,6 +3940,7 @@
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
+      <c r="G362" s="4"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5"/>
@@ -3518,6 +3949,7 @@
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
+      <c r="G363" s="4"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="5"/>
@@ -3526,6 +3958,7 @@
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
+      <c r="G364" s="4"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="5"/>
@@ -3534,6 +3967,7 @@
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
+      <c r="G365" s="4"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="5"/>
@@ -3542,6 +3976,7 @@
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
+      <c r="G366" s="4"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="5"/>
@@ -3550,6 +3985,7 @@
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
+      <c r="G367" s="4"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="5"/>
@@ -3558,6 +3994,7 @@
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
+      <c r="G368" s="4"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="5"/>
@@ -3566,6 +4003,7 @@
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
+      <c r="G369" s="4"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="5"/>
@@ -3574,6 +4012,7 @@
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
+      <c r="G370" s="4"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="5"/>
@@ -3582,6 +4021,7 @@
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
+      <c r="G371" s="4"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="5"/>
@@ -3590,6 +4030,7 @@
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
+      <c r="G372" s="4"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="5"/>
@@ -3598,6 +4039,7 @@
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
+      <c r="G373" s="4"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="5"/>
@@ -3606,6 +4048,7 @@
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
+      <c r="G374" s="4"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="5"/>
@@ -3614,6 +4057,7 @@
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
+      <c r="G375" s="4"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="5"/>
@@ -3622,6 +4066,7 @@
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
+      <c r="G376" s="4"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="5"/>
@@ -3630,6 +4075,7 @@
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
+      <c r="G377" s="4"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="5"/>
@@ -3638,6 +4084,7 @@
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
+      <c r="G378" s="4"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="5"/>
@@ -3646,6 +4093,7 @@
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
+      <c r="G379" s="4"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="5"/>
@@ -3654,6 +4102,7 @@
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
+      <c r="G380" s="4"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="5"/>
@@ -3662,6 +4111,7 @@
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
+      <c r="G381" s="4"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="5"/>
@@ -3670,6 +4120,7 @@
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
+      <c r="G382" s="4"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="5"/>
@@ -3678,6 +4129,7 @@
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
+      <c r="G383" s="4"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="5"/>
@@ -3686,6 +4138,7 @@
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
+      <c r="G384" s="4"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="5"/>
@@ -3694,6 +4147,7 @@
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
+      <c r="G385" s="4"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="5"/>
@@ -3702,6 +4156,7 @@
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
+      <c r="G386" s="4"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="5"/>
@@ -3710,6 +4165,7 @@
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
+      <c r="G387" s="4"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="5"/>
@@ -3718,6 +4174,7 @@
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
+      <c r="G388" s="4"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="5"/>
@@ -3726,6 +4183,7 @@
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
+      <c r="G389" s="4"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="5"/>
@@ -3734,6 +4192,7 @@
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
+      <c r="G390" s="4"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="5"/>
@@ -3742,6 +4201,7 @@
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
+      <c r="G391" s="4"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="5"/>
@@ -3750,6 +4210,7 @@
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
+      <c r="G392" s="4"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="5"/>
@@ -3758,6 +4219,7 @@
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
+      <c r="G393" s="4"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="5"/>
@@ -3766,6 +4228,7 @@
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
+      <c r="G394" s="4"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="5"/>
@@ -3774,6 +4237,7 @@
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
+      <c r="G395" s="4"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="5"/>
@@ -3782,6 +4246,7 @@
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
+      <c r="G396" s="4"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="5"/>
@@ -3790,6 +4255,7 @@
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
+      <c r="G397" s="4"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="5"/>
@@ -3798,6 +4264,7 @@
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
+      <c r="G398" s="4"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="5"/>
@@ -3806,6 +4273,7 @@
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
+      <c r="G399" s="4"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="5"/>
@@ -3814,6 +4282,7 @@
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
+      <c r="G400" s="4"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="5"/>
@@ -3822,6 +4291,7 @@
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
+      <c r="G401" s="4"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="5"/>
@@ -3830,6 +4300,7 @@
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
+      <c r="G402" s="4"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="5"/>
@@ -3838,6 +4309,7 @@
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
+      <c r="G403" s="4"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="5"/>
@@ -3846,6 +4318,7 @@
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
+      <c r="G404" s="4"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="5"/>
@@ -3854,6 +4327,7 @@
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
+      <c r="G405" s="4"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="5"/>
@@ -3862,6 +4336,7 @@
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
+      <c r="G406" s="4"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="5"/>
@@ -3870,6 +4345,7 @@
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
+      <c r="G407" s="4"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="5"/>
@@ -3878,6 +4354,7 @@
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
+      <c r="G408" s="4"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="5"/>
@@ -3886,6 +4363,7 @@
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
+      <c r="G409" s="4"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="5"/>
@@ -3894,6 +4372,7 @@
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
+      <c r="G410" s="4"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="5"/>
@@ -3902,6 +4381,7 @@
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
+      <c r="G411" s="4"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="5"/>
@@ -3910,6 +4390,7 @@
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
+      <c r="G412" s="4"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="5"/>
@@ -3918,6 +4399,7 @@
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
+      <c r="G413" s="4"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="5"/>
@@ -3926,6 +4408,7 @@
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
+      <c r="G414" s="4"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="5"/>
@@ -3934,6 +4417,7 @@
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
+      <c r="G415" s="4"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="5"/>
@@ -3942,6 +4426,7 @@
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
+      <c r="G416" s="4"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="5"/>
@@ -3950,6 +4435,7 @@
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
+      <c r="G417" s="4"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="5"/>
@@ -3958,6 +4444,7 @@
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
+      <c r="G418" s="4"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="5"/>
@@ -3966,6 +4453,7 @@
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
+      <c r="G419" s="4"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="5"/>
@@ -3974,6 +4462,7 @@
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
+      <c r="G420" s="4"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="5"/>
@@ -3982,6 +4471,7 @@
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
+      <c r="G421" s="4"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="5"/>
@@ -3990,6 +4480,7 @@
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
+      <c r="G422" s="4"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="5"/>
@@ -3998,6 +4489,7 @@
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
+      <c r="G423" s="4"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="5"/>
@@ -4006,6 +4498,7 @@
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
+      <c r="G424" s="4"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="5"/>
@@ -4014,6 +4507,7 @@
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
+      <c r="G425" s="4"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="5"/>
@@ -4022,6 +4516,7 @@
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
+      <c r="G426" s="4"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="5"/>
@@ -4030,6 +4525,7 @@
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
+      <c r="G427" s="4"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="5"/>
@@ -4038,6 +4534,7 @@
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
+      <c r="G428" s="4"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="5"/>
@@ -4046,6 +4543,7 @@
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
+      <c r="G429" s="4"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="5"/>
@@ -4054,6 +4552,7 @@
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
+      <c r="G430" s="4"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="5"/>
@@ -4062,6 +4561,7 @@
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
+      <c r="G431" s="4"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="5"/>
@@ -4070,6 +4570,7 @@
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
+      <c r="G432" s="4"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="5"/>
@@ -4078,6 +4579,7 @@
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
+      <c r="G433" s="4"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="5"/>
@@ -4086,6 +4588,7 @@
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
+      <c r="G434" s="4"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="5"/>
@@ -4094,6 +4597,7 @@
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
+      <c r="G435" s="4"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="5"/>
@@ -4102,6 +4606,7 @@
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
+      <c r="G436" s="4"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="5"/>
@@ -4110,6 +4615,7 @@
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
+      <c r="G437" s="4"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="5"/>
@@ -4118,6 +4624,7 @@
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
+      <c r="G438" s="4"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="5"/>
@@ -4126,6 +4633,7 @@
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
+      <c r="G439" s="4"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="5"/>
@@ -4134,6 +4642,7 @@
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
+      <c r="G440" s="4"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="5"/>
@@ -4142,6 +4651,7 @@
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
+      <c r="G441" s="4"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="5"/>
@@ -4150,6 +4660,7 @@
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
+      <c r="G442" s="4"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="5"/>
@@ -4158,6 +4669,7 @@
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
+      <c r="G443" s="4"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="5"/>
@@ -4166,6 +4678,7 @@
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
+      <c r="G444" s="4"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="5"/>
@@ -4174,6 +4687,7 @@
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
+      <c r="G445" s="4"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="5"/>
@@ -4182,6 +4696,7 @@
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
+      <c r="G446" s="4"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="5"/>
@@ -4190,6 +4705,7 @@
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
+      <c r="G447" s="4"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="5"/>
@@ -4198,6 +4714,7 @@
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
+      <c r="G448" s="4"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="5"/>
@@ -4206,6 +4723,7 @@
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
+      <c r="G449" s="4"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="5"/>
@@ -4214,6 +4732,7 @@
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
+      <c r="G450" s="4"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="5"/>
@@ -4222,6 +4741,7 @@
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
+      <c r="G451" s="4"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="5"/>
@@ -4230,6 +4750,7 @@
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
+      <c r="G452" s="4"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="5"/>
@@ -4238,6 +4759,7 @@
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
+      <c r="G453" s="4"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="5"/>
@@ -4246,6 +4768,7 @@
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
+      <c r="G454" s="4"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="5"/>
@@ -4254,6 +4777,7 @@
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
+      <c r="G455" s="4"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="5"/>
@@ -4262,6 +4786,7 @@
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
+      <c r="G456" s="4"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="5"/>
@@ -4270,6 +4795,7 @@
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
+      <c r="G457" s="4"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="5"/>
@@ -4278,6 +4804,7 @@
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
+      <c r="G458" s="4"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="5"/>
@@ -4286,6 +4813,7 @@
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
+      <c r="G459" s="4"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="5"/>
@@ -4294,6 +4822,7 @@
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
+      <c r="G460" s="4"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="5"/>
@@ -4302,6 +4831,7 @@
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
+      <c r="G461" s="4"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="5"/>
@@ -4310,6 +4840,7 @@
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
+      <c r="G462" s="4"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="5"/>
@@ -4318,6 +4849,7 @@
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
+      <c r="G463" s="4"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="5"/>
@@ -4326,6 +4858,7 @@
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
+      <c r="G464" s="4"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="5"/>
@@ -4334,6 +4867,7 @@
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
+      <c r="G465" s="4"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="5"/>
@@ -4342,6 +4876,7 @@
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
+      <c r="G466" s="4"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="5"/>
@@ -4350,6 +4885,7 @@
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
+      <c r="G467" s="4"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="5"/>
@@ -4358,6 +4894,7 @@
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
+      <c r="G468" s="4"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="5"/>
@@ -4366,6 +4903,7 @@
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
+      <c r="G469" s="4"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="5"/>
@@ -4374,6 +4912,7 @@
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
+      <c r="G470" s="4"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="5"/>
@@ -4382,6 +4921,7 @@
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
+      <c r="G471" s="4"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="5"/>
@@ -4390,6 +4930,7 @@
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
+      <c r="G472" s="4"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="5"/>
@@ -4398,6 +4939,7 @@
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
+      <c r="G473" s="4"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="5"/>
@@ -4406,6 +4948,7 @@
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
+      <c r="G474" s="4"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="5"/>
@@ -4414,6 +4957,7 @@
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
+      <c r="G475" s="4"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="5"/>
@@ -4422,6 +4966,7 @@
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
+      <c r="G476" s="4"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="5"/>
@@ -4430,6 +4975,7 @@
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
+      <c r="G477" s="4"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="5"/>
@@ -4438,6 +4984,7 @@
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
+      <c r="G478" s="4"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="5"/>
@@ -4446,6 +4993,7 @@
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
+      <c r="G479" s="4"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="5"/>
@@ -4454,6 +5002,7 @@
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
+      <c r="G480" s="4"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="5"/>
@@ -4462,6 +5011,7 @@
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
+      <c r="G481" s="4"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="5"/>
@@ -4470,6 +5020,7 @@
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
+      <c r="G482" s="4"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="5"/>
@@ -4478,6 +5029,7 @@
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
+      <c r="G483" s="4"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="5"/>
@@ -4486,6 +5038,7 @@
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
+      <c r="G484" s="4"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="5"/>
@@ -4494,6 +5047,7 @@
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
+      <c r="G485" s="4"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="5"/>
@@ -4502,6 +5056,7 @@
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
+      <c r="G486" s="4"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="5"/>
@@ -4510,6 +5065,7 @@
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
+      <c r="G487" s="4"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="5"/>
@@ -4518,6 +5074,7 @@
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
+      <c r="G488" s="4"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="5"/>
@@ -4526,6 +5083,7 @@
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
+      <c r="G489" s="4"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="5"/>
@@ -4534,6 +5092,7 @@
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
+      <c r="G490" s="4"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="5"/>
@@ -4542,6 +5101,7 @@
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
+      <c r="G491" s="4"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="5"/>
@@ -4550,6 +5110,7 @@
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
+      <c r="G492" s="4"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="5"/>
@@ -4558,6 +5119,7 @@
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
+      <c r="G493" s="4"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="5"/>
@@ -4566,6 +5128,7 @@
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
+      <c r="G494" s="4"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="5"/>
@@ -4574,6 +5137,7 @@
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
+      <c r="G495" s="4"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="5"/>
@@ -4582,6 +5146,7 @@
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
+      <c r="G496" s="4"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="5"/>
@@ -4590,6 +5155,7 @@
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
+      <c r="G497" s="4"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="5"/>
@@ -4598,6 +5164,7 @@
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
+      <c r="G498" s="4"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="5"/>
@@ -4606,6 +5173,7 @@
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
+      <c r="G499" s="4"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="5"/>
@@ -4614,6 +5182,7 @@
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
+      <c r="G500" s="4"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="5"/>
@@ -4622,6 +5191,7 @@
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
+      <c r="G501" s="4"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="5"/>
@@ -4630,6 +5200,7 @@
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
+      <c r="G502" s="4"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="5"/>
@@ -4638,6 +5209,7 @@
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
+      <c r="G503" s="4"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="5"/>
@@ -4646,6 +5218,7 @@
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
+      <c r="G504" s="4"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="5"/>
@@ -4654,6 +5227,7 @@
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
+      <c r="G505" s="4"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="5"/>
@@ -4662,6 +5236,7 @@
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
+      <c r="G506" s="4"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="5"/>
@@ -4670,6 +5245,7 @@
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
+      <c r="G507" s="4"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="5"/>
@@ -4678,6 +5254,7 @@
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
+      <c r="G508" s="4"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="5"/>
@@ -4686,6 +5263,7 @@
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
+      <c r="G509" s="4"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="5"/>
@@ -4694,6 +5272,7 @@
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
+      <c r="G510" s="4"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="5"/>
@@ -4702,6 +5281,7 @@
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
+      <c r="G511" s="4"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="5"/>
@@ -4710,6 +5290,7 @@
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
+      <c r="G512" s="4"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="5"/>
@@ -4718,6 +5299,7 @@
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
+      <c r="G513" s="4"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="5"/>
@@ -4726,6 +5308,7 @@
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
+      <c r="G514" s="4"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="5"/>
@@ -4734,6 +5317,7 @@
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
+      <c r="G515" s="4"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="5"/>
@@ -4742,6 +5326,7 @@
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
+      <c r="G516" s="4"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="5"/>
@@ -4750,6 +5335,7 @@
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
+      <c r="G517" s="4"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="5"/>
@@ -4758,6 +5344,7 @@
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
+      <c r="G518" s="4"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="5"/>
@@ -4766,6 +5353,7 @@
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
+      <c r="G519" s="4"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="5"/>
@@ -4774,6 +5362,7 @@
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
+      <c r="G520" s="4"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="5"/>
@@ -4782,6 +5371,7 @@
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
+      <c r="G521" s="4"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="5"/>
@@ -4790,6 +5380,7 @@
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
+      <c r="G522" s="4"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="5"/>
@@ -4798,6 +5389,7 @@
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
+      <c r="G523" s="4"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="5"/>
@@ -4806,6 +5398,7 @@
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
+      <c r="G524" s="4"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="5"/>
@@ -4814,6 +5407,7 @@
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
+      <c r="G525" s="4"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="5"/>
@@ -4822,6 +5416,7 @@
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
+      <c r="G526" s="4"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="5"/>
@@ -4830,6 +5425,7 @@
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
+      <c r="G527" s="4"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="5"/>
@@ -4838,6 +5434,7 @@
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
+      <c r="G528" s="4"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="5"/>
@@ -4846,6 +5443,7 @@
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
+      <c r="G529" s="4"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="5"/>
@@ -4854,6 +5452,7 @@
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
+      <c r="G530" s="4"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="5"/>
@@ -4862,6 +5461,7 @@
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
+      <c r="G531" s="4"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="5"/>
@@ -4870,6 +5470,7 @@
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
+      <c r="G532" s="4"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="5"/>
@@ -4878,6 +5479,7 @@
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
+      <c r="G533" s="4"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="5"/>
@@ -4886,6 +5488,7 @@
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
+      <c r="G534" s="4"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="5"/>
@@ -4894,6 +5497,7 @@
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
+      <c r="G535" s="4"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="5"/>
@@ -4902,6 +5506,7 @@
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
+      <c r="G536" s="4"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="5"/>
@@ -4910,6 +5515,7 @@
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
+      <c r="G537" s="4"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="5"/>
@@ -4918,6 +5524,7 @@
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
+      <c r="G538" s="4"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="5"/>
@@ -4926,6 +5533,7 @@
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
+      <c r="G539" s="4"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="5"/>
@@ -4934,6 +5542,7 @@
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
+      <c r="G540" s="4"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="5"/>
@@ -4942,6 +5551,7 @@
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
+      <c r="G541" s="4"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="5"/>
@@ -4950,6 +5560,7 @@
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
+      <c r="G542" s="4"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="5"/>
@@ -4958,6 +5569,7 @@
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
+      <c r="G543" s="4"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="5"/>
@@ -4966,6 +5578,7 @@
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
+      <c r="G544" s="4"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="5"/>
@@ -4974,6 +5587,7 @@
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
+      <c r="G545" s="4"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="5"/>
@@ -4982,6 +5596,7 @@
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
+      <c r="G546" s="4"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="5"/>
@@ -4990,6 +5605,7 @@
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
+      <c r="G547" s="4"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="5"/>
@@ -4998,6 +5614,7 @@
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
+      <c r="G548" s="4"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="5"/>
@@ -5006,6 +5623,7 @@
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
+      <c r="G549" s="4"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="5"/>
@@ -5014,6 +5632,7 @@
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
+      <c r="G550" s="4"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="5"/>
@@ -5022,6 +5641,7 @@
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
+      <c r="G551" s="4"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="5"/>
@@ -5030,6 +5650,7 @@
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
+      <c r="G552" s="4"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="5"/>
@@ -5038,6 +5659,7 @@
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
+      <c r="G553" s="4"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="5"/>
@@ -5046,6 +5668,7 @@
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
+      <c r="G554" s="4"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="5"/>
@@ -5054,6 +5677,7 @@
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
+      <c r="G555" s="4"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="5"/>
@@ -5062,6 +5686,7 @@
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
+      <c r="G556" s="4"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="5"/>
@@ -5070,6 +5695,7 @@
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
+      <c r="G557" s="4"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="5"/>
@@ -5078,6 +5704,7 @@
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
+      <c r="G558" s="4"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="5"/>
@@ -5086,6 +5713,7 @@
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
+      <c r="G559" s="4"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="5"/>
@@ -5094,6 +5722,7 @@
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
+      <c r="G560" s="4"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="5"/>
@@ -5102,6 +5731,7 @@
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
+      <c r="G561" s="4"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="5"/>
@@ -5110,6 +5740,7 @@
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
+      <c r="G562" s="4"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="5"/>
@@ -5118,6 +5749,7 @@
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
+      <c r="G563" s="4"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="5"/>
@@ -5126,6 +5758,7 @@
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
+      <c r="G564" s="4"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="5"/>
@@ -5134,6 +5767,7 @@
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
+      <c r="G565" s="4"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="5"/>
@@ -5142,6 +5776,7 @@
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
+      <c r="G566" s="4"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="5"/>
@@ -5150,6 +5785,7 @@
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
+      <c r="G567" s="4"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="5"/>
@@ -5158,6 +5794,7 @@
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
+      <c r="G568" s="4"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="5"/>
@@ -5166,6 +5803,7 @@
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
+      <c r="G569" s="4"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="5"/>
@@ -5174,6 +5812,7 @@
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
+      <c r="G570" s="4"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="5"/>
@@ -5182,6 +5821,7 @@
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
+      <c r="G571" s="4"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="5"/>
@@ -5190,6 +5830,7 @@
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
+      <c r="G572" s="4"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="5"/>
@@ -5198,6 +5839,7 @@
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
+      <c r="G573" s="4"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="5"/>
@@ -5206,6 +5848,7 @@
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
+      <c r="G574" s="4"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="5"/>
@@ -5214,6 +5857,7 @@
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
+      <c r="G575" s="4"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="5"/>
@@ -5222,6 +5866,7 @@
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
+      <c r="G576" s="4"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="5"/>
@@ -5230,6 +5875,7 @@
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
+      <c r="G577" s="4"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="5"/>
@@ -5238,6 +5884,7 @@
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
+      <c r="G578" s="4"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="5"/>
@@ -5246,6 +5893,7 @@
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
+      <c r="G579" s="4"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="5"/>
@@ -5254,6 +5902,7 @@
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
+      <c r="G580" s="4"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="5"/>
@@ -5262,6 +5911,7 @@
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
+      <c r="G581" s="4"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="5"/>
@@ -5270,6 +5920,7 @@
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
+      <c r="G582" s="4"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="5"/>
@@ -5278,6 +5929,7 @@
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
+      <c r="G583" s="4"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="5"/>
@@ -5286,6 +5938,7 @@
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
+      <c r="G584" s="4"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="5"/>
@@ -5294,6 +5947,7 @@
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
+      <c r="G585" s="4"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="5"/>
@@ -5302,6 +5956,7 @@
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
+      <c r="G586" s="4"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="5"/>
@@ -5310,6 +5965,7 @@
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
+      <c r="G587" s="4"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="5"/>
@@ -5318,6 +5974,7 @@
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
+      <c r="G588" s="4"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="5"/>
@@ -5326,6 +5983,7 @@
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
+      <c r="G589" s="4"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="5"/>
@@ -5334,6 +5992,7 @@
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
+      <c r="G590" s="4"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="5"/>
@@ -5342,6 +6001,7 @@
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
+      <c r="G591" s="4"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="5"/>
@@ -5350,6 +6010,7 @@
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
+      <c r="G592" s="4"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="5"/>
@@ -5358,6 +6019,7 @@
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
+      <c r="G593" s="4"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="5"/>
@@ -5366,6 +6028,7 @@
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
+      <c r="G594" s="4"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="5"/>
@@ -5374,6 +6037,7 @@
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
+      <c r="G595" s="4"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="5"/>
@@ -5382,6 +6046,7 @@
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
+      <c r="G596" s="4"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="5"/>
@@ -5390,6 +6055,7 @@
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
+      <c r="G597" s="4"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="5"/>
@@ -5398,6 +6064,7 @@
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
+      <c r="G598" s="4"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="5"/>
@@ -5406,6 +6073,7 @@
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
+      <c r="G599" s="4"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="5"/>
@@ -5414,6 +6082,7 @@
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
+      <c r="G600" s="4"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="5"/>
@@ -5422,6 +6091,7 @@
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
+      <c r="G601" s="4"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="5"/>
@@ -5430,6 +6100,7 @@
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
+      <c r="G602" s="4"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="5"/>
@@ -5438,6 +6109,7 @@
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
+      <c r="G603" s="4"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="5"/>
@@ -5446,6 +6118,7 @@
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
+      <c r="G604" s="4"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="5"/>
@@ -5454,6 +6127,7 @@
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
+      <c r="G605" s="4"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="5"/>
@@ -5462,6 +6136,7 @@
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
+      <c r="G606" s="4"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="5"/>
@@ -5470,6 +6145,7 @@
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
+      <c r="G607" s="4"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="5"/>
@@ -5478,6 +6154,7 @@
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
+      <c r="G608" s="4"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="5"/>
@@ -5486,6 +6163,7 @@
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
+      <c r="G609" s="4"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="5"/>
@@ -5494,6 +6172,7 @@
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
+      <c r="G610" s="4"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="5"/>
@@ -5502,6 +6181,7 @@
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
+      <c r="G611" s="4"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="5"/>
@@ -5510,6 +6190,7 @@
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
+      <c r="G612" s="4"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="5"/>
@@ -5518,6 +6199,7 @@
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
+      <c r="G613" s="4"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="5"/>
@@ -5526,6 +6208,7 @@
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
+      <c r="G614" s="4"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="5"/>
@@ -5534,6 +6217,7 @@
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
+      <c r="G615" s="4"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="5"/>
@@ -5542,6 +6226,7 @@
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
+      <c r="G616" s="4"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="5"/>
@@ -5550,6 +6235,7 @@
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
+      <c r="G617" s="4"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="5"/>
@@ -5558,6 +6244,7 @@
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
+      <c r="G618" s="4"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="5"/>
@@ -5566,6 +6253,7 @@
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
+      <c r="G619" s="4"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="5"/>
@@ -5574,6 +6262,7 @@
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
+      <c r="G620" s="4"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="5"/>
@@ -5582,6 +6271,7 @@
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
+      <c r="G621" s="4"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="5"/>
@@ -5590,6 +6280,7 @@
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
+      <c r="G622" s="4"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="5"/>
@@ -5598,6 +6289,7 @@
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
+      <c r="G623" s="4"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="5"/>
@@ -5606,6 +6298,7 @@
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
+      <c r="G624" s="4"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="5"/>
@@ -5614,6 +6307,7 @@
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
+      <c r="G625" s="4"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="5"/>
@@ -5622,6 +6316,7 @@
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
+      <c r="G626" s="4"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="5"/>
@@ -5630,6 +6325,7 @@
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
+      <c r="G627" s="4"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="5"/>
@@ -5638,6 +6334,7 @@
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
+      <c r="G628" s="4"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="5"/>
@@ -5646,6 +6343,7 @@
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
+      <c r="G629" s="4"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="5"/>
@@ -5654,6 +6352,7 @@
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
+      <c r="G630" s="4"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="5"/>
@@ -5662,6 +6361,7 @@
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
+      <c r="G631" s="4"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="5"/>
@@ -5670,6 +6370,7 @@
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
+      <c r="G632" s="4"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="5"/>
@@ -5678,6 +6379,7 @@
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
+      <c r="G633" s="4"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="5"/>
@@ -5686,6 +6388,7 @@
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
+      <c r="G634" s="4"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="5"/>
@@ -5694,6 +6397,7 @@
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
+      <c r="G635" s="4"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="5"/>
@@ -5702,6 +6406,7 @@
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
+      <c r="G636" s="4"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="5"/>
@@ -5710,6 +6415,7 @@
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
+      <c r="G637" s="4"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="5"/>
@@ -5718,6 +6424,7 @@
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
+      <c r="G638" s="4"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="5"/>
@@ -5726,6 +6433,7 @@
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
+      <c r="G639" s="4"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="5"/>
@@ -5734,6 +6442,7 @@
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
+      <c r="G640" s="4"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="5"/>
@@ -5742,6 +6451,7 @@
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
+      <c r="G641" s="4"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="5"/>
@@ -5750,6 +6460,7 @@
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
+      <c r="G642" s="4"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="5"/>
@@ -5758,6 +6469,7 @@
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
+      <c r="G643" s="4"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="5"/>
@@ -5766,6 +6478,7 @@
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
+      <c r="G644" s="4"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="5"/>
@@ -5774,6 +6487,7 @@
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
+      <c r="G645" s="4"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="5"/>
@@ -5782,6 +6496,7 @@
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
+      <c r="G646" s="4"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="5"/>
@@ -5790,6 +6505,7 @@
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
+      <c r="G647" s="4"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="5"/>
@@ -5798,6 +6514,7 @@
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
+      <c r="G648" s="4"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="5"/>
@@ -5806,6 +6523,7 @@
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
+      <c r="G649" s="4"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="5"/>
@@ -5814,6 +6532,7 @@
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
+      <c r="G650" s="4"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="5"/>
@@ -5822,6 +6541,7 @@
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
+      <c r="G651" s="4"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="5"/>
@@ -5830,6 +6550,7 @@
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
+      <c r="G652" s="4"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="5"/>
@@ -5838,6 +6559,7 @@
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
+      <c r="G653" s="4"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="5"/>
@@ -5846,6 +6568,7 @@
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
+      <c r="G654" s="4"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="5"/>
@@ -5854,6 +6577,7 @@
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
+      <c r="G655" s="4"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="5"/>
@@ -5862,6 +6586,7 @@
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
+      <c r="G656" s="4"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="5"/>
@@ -5870,6 +6595,7 @@
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
+      <c r="G657" s="4"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="5"/>
@@ -5878,6 +6604,7 @@
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
+      <c r="G658" s="4"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="5"/>
@@ -5886,6 +6613,7 @@
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
+      <c r="G659" s="4"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="5"/>
@@ -5894,6 +6622,7 @@
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
+      <c r="G660" s="4"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="5"/>
@@ -5902,6 +6631,7 @@
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
+      <c r="G661" s="4"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="5"/>
@@ -5910,6 +6640,7 @@
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
+      <c r="G662" s="4"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="5"/>
@@ -5918,6 +6649,7 @@
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
+      <c r="G663" s="4"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="5"/>
@@ -5926,6 +6658,7 @@
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
+      <c r="G664" s="4"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="5"/>
@@ -5934,6 +6667,7 @@
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
+      <c r="G665" s="4"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="5"/>
@@ -5942,6 +6676,7 @@
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
+      <c r="G666" s="4"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="5"/>
@@ -5950,6 +6685,7 @@
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
+      <c r="G667" s="4"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="5"/>
@@ -5958,6 +6694,7 @@
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
+      <c r="G668" s="4"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="5"/>
@@ -5966,6 +6703,7 @@
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
+      <c r="G669" s="4"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="5"/>
@@ -5974,6 +6712,7 @@
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
+      <c r="G670" s="4"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="5"/>
@@ -5982,6 +6721,7 @@
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
+      <c r="G671" s="4"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="5"/>
@@ -5990,6 +6730,7 @@
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
+      <c r="G672" s="4"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="5"/>
@@ -5998,6 +6739,7 @@
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
+      <c r="G673" s="4"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="5"/>
@@ -6006,6 +6748,7 @@
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
+      <c r="G674" s="4"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="5"/>
@@ -6014,6 +6757,7 @@
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
+      <c r="G675" s="4"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="5"/>
@@ -6022,6 +6766,7 @@
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
+      <c r="G676" s="4"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="5"/>
@@ -6030,6 +6775,7 @@
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
+      <c r="G677" s="4"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="5"/>
@@ -6038,6 +6784,7 @@
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
+      <c r="G678" s="4"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="5"/>
@@ -6046,6 +6793,7 @@
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
+      <c r="G679" s="4"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="5"/>
@@ -6054,6 +6802,7 @@
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
+      <c r="G680" s="4"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="5"/>
@@ -6062,6 +6811,7 @@
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
+      <c r="G681" s="4"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="5"/>
@@ -6070,6 +6820,7 @@
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
+      <c r="G682" s="4"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="5"/>
@@ -6078,6 +6829,7 @@
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
+      <c r="G683" s="4"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="5"/>
@@ -6086,6 +6838,7 @@
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
+      <c r="G684" s="4"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="5"/>
@@ -6094,6 +6847,7 @@
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
+      <c r="G685" s="4"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="5"/>
@@ -6102,6 +6856,7 @@
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
+      <c r="G686" s="4"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="5"/>
@@ -6110,6 +6865,7 @@
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
+      <c r="G687" s="4"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="5"/>
@@ -6118,6 +6874,7 @@
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
+      <c r="G688" s="4"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="5"/>
@@ -6126,6 +6883,7 @@
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
+      <c r="G689" s="4"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="5"/>
@@ -6134,6 +6892,7 @@
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
+      <c r="G690" s="4"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="5"/>
@@ -6142,6 +6901,7 @@
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
+      <c r="G691" s="4"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="5"/>
@@ -6150,6 +6910,7 @@
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
+      <c r="G692" s="4"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="5"/>
@@ -6158,6 +6919,7 @@
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
+      <c r="G693" s="4"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="5"/>
@@ -6166,6 +6928,7 @@
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
+      <c r="G694" s="4"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="5"/>
@@ -6174,6 +6937,7 @@
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
+      <c r="G695" s="4"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="5"/>
@@ -6182,6 +6946,7 @@
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
+      <c r="G696" s="4"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="5"/>
@@ -6190,6 +6955,7 @@
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
+      <c r="G697" s="4"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="5"/>
@@ -6198,6 +6964,7 @@
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
+      <c r="G698" s="4"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="5"/>
@@ -6206,6 +6973,7 @@
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
+      <c r="G699" s="4"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="5"/>
@@ -6214,6 +6982,7 @@
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
+      <c r="G700" s="4"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="5"/>
@@ -6222,6 +6991,7 @@
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
+      <c r="G701" s="4"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="5"/>
@@ -6230,6 +7000,7 @@
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
+      <c r="G702" s="4"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="5"/>
@@ -6238,6 +7009,7 @@
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
+      <c r="G703" s="4"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="5"/>
@@ -6246,6 +7018,7 @@
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
+      <c r="G704" s="4"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="5"/>
@@ -6254,6 +7027,7 @@
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
+      <c r="G705" s="4"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="5"/>
@@ -6262,6 +7036,7 @@
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
+      <c r="G706" s="4"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="5"/>
@@ -6270,6 +7045,7 @@
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
+      <c r="G707" s="4"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="5"/>
@@ -6278,6 +7054,7 @@
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
+      <c r="G708" s="4"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="5"/>
@@ -6286,6 +7063,7 @@
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
+      <c r="G709" s="4"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="5"/>
@@ -6294,6 +7072,7 @@
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
+      <c r="G710" s="4"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="5"/>
@@ -6302,6 +7081,7 @@
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
+      <c r="G711" s="4"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="5"/>
@@ -6310,6 +7090,7 @@
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
+      <c r="G712" s="4"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="5"/>
@@ -6318,6 +7099,7 @@
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
+      <c r="G713" s="4"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="5"/>
@@ -6326,6 +7108,7 @@
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
+      <c r="G714" s="4"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="5"/>
@@ -6334,6 +7117,7 @@
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
+      <c r="G715" s="4"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="5"/>
@@ -6342,6 +7126,7 @@
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
+      <c r="G716" s="4"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="5"/>
@@ -6350,6 +7135,7 @@
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
+      <c r="G717" s="4"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="5"/>
@@ -6358,6 +7144,7 @@
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
+      <c r="G718" s="4"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="5"/>
@@ -6366,6 +7153,7 @@
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
+      <c r="G719" s="4"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="5"/>
@@ -6374,6 +7162,7 @@
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
+      <c r="G720" s="4"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="5"/>
@@ -6382,6 +7171,7 @@
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
+      <c r="G721" s="4"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="5"/>
@@ -6390,6 +7180,7 @@
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
+      <c r="G722" s="4"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="5"/>
@@ -6398,6 +7189,7 @@
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
+      <c r="G723" s="4"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="5"/>
@@ -6406,6 +7198,7 @@
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
+      <c r="G724" s="4"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="5"/>
@@ -6414,6 +7207,7 @@
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
+      <c r="G725" s="4"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="5"/>
@@ -6422,6 +7216,7 @@
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
+      <c r="G726" s="4"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="5"/>
@@ -6430,6 +7225,7 @@
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
+      <c r="G727" s="4"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="5"/>
@@ -6438,6 +7234,7 @@
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
+      <c r="G728" s="4"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="5"/>
@@ -6446,6 +7243,7 @@
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
+      <c r="G729" s="4"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="5"/>
@@ -6454,6 +7252,7 @@
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
+      <c r="G730" s="4"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="5"/>
@@ -6462,6 +7261,7 @@
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
+      <c r="G731" s="4"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="5"/>
@@ -6470,6 +7270,7 @@
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
+      <c r="G732" s="4"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="5"/>
@@ -6478,6 +7279,7 @@
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
+      <c r="G733" s="4"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="5"/>
@@ -6486,6 +7288,7 @@
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
+      <c r="G734" s="4"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="5"/>
@@ -6494,6 +7297,7 @@
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
+      <c r="G735" s="4"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="5"/>
@@ -6502,6 +7306,7 @@
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
+      <c r="G736" s="4"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="5"/>
@@ -6510,6 +7315,7 @@
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
+      <c r="G737" s="4"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="5"/>
@@ -6518,6 +7324,7 @@
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
+      <c r="G738" s="4"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="5"/>
@@ -6526,6 +7333,7 @@
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
+      <c r="G739" s="4"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="5"/>
@@ -6534,6 +7342,7 @@
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
+      <c r="G740" s="4"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="5"/>
@@ -6542,6 +7351,7 @@
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
+      <c r="G741" s="4"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="5"/>
@@ -6550,6 +7360,7 @@
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
+      <c r="G742" s="4"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="5"/>
@@ -6558,6 +7369,7 @@
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
+      <c r="G743" s="4"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="5"/>
@@ -6566,6 +7378,7 @@
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
       <c r="F744" s="4"/>
+      <c r="G744" s="4"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="5"/>
@@ -6574,6 +7387,7 @@
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
+      <c r="G745" s="4"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="5"/>
@@ -6582,6 +7396,7 @@
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
+      <c r="G746" s="4"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="5"/>
@@ -6590,6 +7405,7 @@
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
+      <c r="G747" s="4"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="5"/>
@@ -6598,6 +7414,7 @@
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
+      <c r="G748" s="4"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="5"/>
@@ -6606,6 +7423,7 @@
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
+      <c r="G749" s="4"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="5"/>
@@ -6614,6 +7432,7 @@
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
+      <c r="G750" s="4"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="5"/>
@@ -6622,6 +7441,7 @@
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
+      <c r="G751" s="4"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="5"/>
@@ -6630,6 +7450,7 @@
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
+      <c r="G752" s="4"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="5"/>
@@ -6638,6 +7459,7 @@
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
       <c r="F753" s="4"/>
+      <c r="G753" s="4"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="5"/>
@@ -6646,6 +7468,7 @@
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
       <c r="F754" s="4"/>
+      <c r="G754" s="4"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="5"/>
@@ -6654,6 +7477,7 @@
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
       <c r="F755" s="4"/>
+      <c r="G755" s="4"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="5"/>
@@ -6662,6 +7486,7 @@
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
       <c r="F756" s="4"/>
+      <c r="G756" s="4"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="5"/>
@@ -6670,6 +7495,7 @@
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
       <c r="F757" s="4"/>
+      <c r="G757" s="4"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="5"/>
@@ -6678,6 +7504,7 @@
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
       <c r="F758" s="4"/>
+      <c r="G758" s="4"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="5"/>
@@ -6686,6 +7513,7 @@
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
       <c r="F759" s="4"/>
+      <c r="G759" s="4"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="5"/>
@@ -6694,6 +7522,7 @@
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
       <c r="F760" s="4"/>
+      <c r="G760" s="4"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="5"/>
@@ -6702,6 +7531,7 @@
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
       <c r="F761" s="4"/>
+      <c r="G761" s="4"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="5"/>
@@ -6710,6 +7540,7 @@
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
       <c r="F762" s="4"/>
+      <c r="G762" s="4"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="5"/>
@@ -6718,6 +7549,7 @@
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
       <c r="F763" s="4"/>
+      <c r="G763" s="4"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="5"/>
@@ -6726,6 +7558,7 @@
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
       <c r="F764" s="4"/>
+      <c r="G764" s="4"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="5"/>
@@ -6734,6 +7567,7 @@
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
       <c r="F765" s="4"/>
+      <c r="G765" s="4"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="5"/>
@@ -6742,6 +7576,7 @@
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
       <c r="F766" s="4"/>
+      <c r="G766" s="4"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="5"/>
@@ -6750,6 +7585,7 @@
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
       <c r="F767" s="4"/>
+      <c r="G767" s="4"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="5"/>
@@ -6758,6 +7594,7 @@
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
       <c r="F768" s="4"/>
+      <c r="G768" s="4"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="5"/>
@@ -6766,6 +7603,7 @@
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
       <c r="F769" s="4"/>
+      <c r="G769" s="4"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="5"/>
@@ -6774,6 +7612,7 @@
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
       <c r="F770" s="4"/>
+      <c r="G770" s="4"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="5"/>
@@ -6782,6 +7621,7 @@
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
       <c r="F771" s="4"/>
+      <c r="G771" s="4"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="5"/>
@@ -6790,6 +7630,7 @@
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
       <c r="F772" s="4"/>
+      <c r="G772" s="4"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="5"/>
@@ -6798,6 +7639,7 @@
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
       <c r="F773" s="4"/>
+      <c r="G773" s="4"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="5"/>
@@ -6806,6 +7648,7 @@
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
       <c r="F774" s="4"/>
+      <c r="G774" s="4"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="5"/>
@@ -6814,6 +7657,7 @@
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
       <c r="F775" s="4"/>
+      <c r="G775" s="4"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="5"/>
@@ -6822,6 +7666,7 @@
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
       <c r="F776" s="4"/>
+      <c r="G776" s="4"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="5"/>
@@ -6830,6 +7675,7 @@
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
       <c r="F777" s="4"/>
+      <c r="G777" s="4"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="5"/>
@@ -6838,6 +7684,7 @@
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
       <c r="F778" s="4"/>
+      <c r="G778" s="4"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="5"/>
@@ -6846,6 +7693,7 @@
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
       <c r="F779" s="4"/>
+      <c r="G779" s="4"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="5"/>
@@ -6854,6 +7702,7 @@
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
       <c r="F780" s="4"/>
+      <c r="G780" s="4"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="5"/>
@@ -6862,6 +7711,7 @@
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
       <c r="F781" s="4"/>
+      <c r="G781" s="4"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="5"/>
@@ -6870,6 +7720,7 @@
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
       <c r="F782" s="4"/>
+      <c r="G782" s="4"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="5"/>
@@ -6878,6 +7729,7 @@
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
       <c r="F783" s="4"/>
+      <c r="G783" s="4"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="5"/>
@@ -6886,6 +7738,7 @@
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
       <c r="F784" s="4"/>
+      <c r="G784" s="4"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="5"/>
@@ -6894,6 +7747,7 @@
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
       <c r="F785" s="4"/>
+      <c r="G785" s="4"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="5"/>
@@ -6902,6 +7756,7 @@
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
       <c r="F786" s="4"/>
+      <c r="G786" s="4"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="5"/>
@@ -6910,6 +7765,7 @@
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
       <c r="F787" s="4"/>
+      <c r="G787" s="4"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="5"/>
@@ -6918,6 +7774,7 @@
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
       <c r="F788" s="4"/>
+      <c r="G788" s="4"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="5"/>
@@ -6926,6 +7783,7 @@
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
       <c r="F789" s="4"/>
+      <c r="G789" s="4"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="5"/>
@@ -6934,6 +7792,7 @@
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
       <c r="F790" s="4"/>
+      <c r="G790" s="4"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="5"/>
@@ -6942,6 +7801,7 @@
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
       <c r="F791" s="4"/>
+      <c r="G791" s="4"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="5"/>
@@ -6950,6 +7810,7 @@
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
       <c r="F792" s="4"/>
+      <c r="G792" s="4"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="5"/>
@@ -6958,6 +7819,7 @@
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
       <c r="F793" s="4"/>
+      <c r="G793" s="4"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="5"/>
@@ -6966,6 +7828,7 @@
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
       <c r="F794" s="4"/>
+      <c r="G794" s="4"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="5"/>
@@ -6974,6 +7837,7 @@
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
       <c r="F795" s="4"/>
+      <c r="G795" s="4"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="5"/>
@@ -6982,6 +7846,7 @@
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
       <c r="F796" s="4"/>
+      <c r="G796" s="4"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="5"/>
@@ -6990,6 +7855,7 @@
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
       <c r="F797" s="4"/>
+      <c r="G797" s="4"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="5"/>
@@ -6998,6 +7864,7 @@
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
       <c r="F798" s="4"/>
+      <c r="G798" s="4"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="5"/>
@@ -7006,6 +7873,7 @@
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
       <c r="F799" s="4"/>
+      <c r="G799" s="4"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="5"/>
@@ -7014,6 +7882,7 @@
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
       <c r="F800" s="4"/>
+      <c r="G800" s="4"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="5"/>
@@ -7022,6 +7891,7 @@
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
       <c r="F801" s="4"/>
+      <c r="G801" s="4"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="5"/>
@@ -7030,6 +7900,7 @@
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
       <c r="F802" s="4"/>
+      <c r="G802" s="4"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="5"/>
@@ -7038,6 +7909,7 @@
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
       <c r="F803" s="4"/>
+      <c r="G803" s="4"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="5"/>
@@ -7046,6 +7918,7 @@
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
       <c r="F804" s="4"/>
+      <c r="G804" s="4"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="5"/>
@@ -7054,6 +7927,7 @@
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
       <c r="F805" s="4"/>
+      <c r="G805" s="4"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="5"/>
@@ -7062,6 +7936,7 @@
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
       <c r="F806" s="4"/>
+      <c r="G806" s="4"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="5"/>
@@ -7070,6 +7945,7 @@
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
       <c r="F807" s="4"/>
+      <c r="G807" s="4"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="5"/>
@@ -7078,6 +7954,7 @@
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
       <c r="F808" s="4"/>
+      <c r="G808" s="4"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="5"/>
@@ -7086,6 +7963,7 @@
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
       <c r="F809" s="4"/>
+      <c r="G809" s="4"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="5"/>
@@ -7094,6 +7972,7 @@
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
       <c r="F810" s="4"/>
+      <c r="G810" s="4"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="5"/>
@@ -7102,6 +7981,7 @@
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
       <c r="F811" s="4"/>
+      <c r="G811" s="4"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="5"/>
@@ -7110,6 +7990,7 @@
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
       <c r="F812" s="4"/>
+      <c r="G812" s="4"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="5"/>
@@ -7118,6 +7999,7 @@
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
       <c r="F813" s="4"/>
+      <c r="G813" s="4"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="5"/>
@@ -7126,6 +8008,7 @@
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
       <c r="F814" s="4"/>
+      <c r="G814" s="4"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="5"/>
@@ -7134,6 +8017,7 @@
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
       <c r="F815" s="4"/>
+      <c r="G815" s="4"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="5"/>
@@ -7142,6 +8026,7 @@
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
       <c r="F816" s="4"/>
+      <c r="G816" s="4"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="5"/>
@@ -7150,6 +8035,7 @@
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
       <c r="F817" s="4"/>
+      <c r="G817" s="4"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="5"/>
@@ -7158,6 +8044,7 @@
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
       <c r="F818" s="4"/>
+      <c r="G818" s="4"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="5"/>
@@ -7166,6 +8053,7 @@
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
       <c r="F819" s="4"/>
+      <c r="G819" s="4"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="5"/>
@@ -7174,6 +8062,7 @@
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
       <c r="F820" s="4"/>
+      <c r="G820" s="4"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="5"/>
@@ -7182,6 +8071,7 @@
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
       <c r="F821" s="4"/>
+      <c r="G821" s="4"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="5"/>
@@ -7190,6 +8080,7 @@
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
       <c r="F822" s="4"/>
+      <c r="G822" s="4"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="5"/>
@@ -7198,6 +8089,7 @@
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
       <c r="F823" s="4"/>
+      <c r="G823" s="4"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="5"/>
@@ -7206,6 +8098,7 @@
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
       <c r="F824" s="4"/>
+      <c r="G824" s="4"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="5"/>
@@ -7214,6 +8107,7 @@
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
       <c r="F825" s="4"/>
+      <c r="G825" s="4"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="5"/>
@@ -7222,6 +8116,7 @@
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
       <c r="F826" s="4"/>
+      <c r="G826" s="4"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="5"/>
@@ -7230,6 +8125,7 @@
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
       <c r="F827" s="4"/>
+      <c r="G827" s="4"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="5"/>
@@ -7238,6 +8134,7 @@
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
       <c r="F828" s="4"/>
+      <c r="G828" s="4"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="5"/>
@@ -7246,6 +8143,7 @@
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
       <c r="F829" s="4"/>
+      <c r="G829" s="4"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="5"/>
@@ -7254,6 +8152,7 @@
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
       <c r="F830" s="4"/>
+      <c r="G830" s="4"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="5"/>
@@ -7262,6 +8161,7 @@
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
       <c r="F831" s="4"/>
+      <c r="G831" s="4"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="5"/>
@@ -7270,6 +8170,7 @@
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
       <c r="F832" s="4"/>
+      <c r="G832" s="4"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="5"/>
@@ -7278,6 +8179,7 @@
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
       <c r="F833" s="4"/>
+      <c r="G833" s="4"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="5"/>
@@ -7286,6 +8188,7 @@
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
       <c r="F834" s="4"/>
+      <c r="G834" s="4"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="5"/>
@@ -7294,6 +8197,7 @@
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
       <c r="F835" s="4"/>
+      <c r="G835" s="4"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="5"/>
@@ -7302,6 +8206,7 @@
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
       <c r="F836" s="4"/>
+      <c r="G836" s="4"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="5"/>
@@ -7310,6 +8215,7 @@
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
       <c r="F837" s="4"/>
+      <c r="G837" s="4"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="5"/>
@@ -7318,6 +8224,7 @@
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
       <c r="F838" s="4"/>
+      <c r="G838" s="4"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="5"/>
@@ -7326,6 +8233,7 @@
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
       <c r="F839" s="4"/>
+      <c r="G839" s="4"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="5"/>
@@ -7334,6 +8242,7 @@
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
       <c r="F840" s="4"/>
+      <c r="G840" s="4"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="5"/>
@@ -7342,6 +8251,7 @@
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
       <c r="F841" s="4"/>
+      <c r="G841" s="4"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="5"/>
@@ -7350,6 +8260,7 @@
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
       <c r="F842" s="4"/>
+      <c r="G842" s="4"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="5"/>
@@ -7358,6 +8269,7 @@
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
       <c r="F843" s="4"/>
+      <c r="G843" s="4"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="5"/>
@@ -7366,6 +8278,7 @@
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
       <c r="F844" s="4"/>
+      <c r="G844" s="4"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="5"/>
@@ -7374,6 +8287,7 @@
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
       <c r="F845" s="4"/>
+      <c r="G845" s="4"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="5"/>
@@ -7382,6 +8296,7 @@
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
       <c r="F846" s="4"/>
+      <c r="G846" s="4"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="5"/>
@@ -7390,6 +8305,7 @@
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
       <c r="F847" s="4"/>
+      <c r="G847" s="4"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="5"/>
@@ -7398,6 +8314,7 @@
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
       <c r="F848" s="4"/>
+      <c r="G848" s="4"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="5"/>
@@ -7406,6 +8323,7 @@
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
       <c r="F849" s="4"/>
+      <c r="G849" s="4"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="5"/>
@@ -7414,6 +8332,7 @@
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
       <c r="F850" s="4"/>
+      <c r="G850" s="4"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="5"/>
@@ -7422,6 +8341,7 @@
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
       <c r="F851" s="4"/>
+      <c r="G851" s="4"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="5"/>
@@ -7430,6 +8350,7 @@
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
       <c r="F852" s="4"/>
+      <c r="G852" s="4"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="5"/>
@@ -7438,6 +8359,7 @@
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
       <c r="F853" s="4"/>
+      <c r="G853" s="4"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="5"/>
@@ -7446,6 +8368,7 @@
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
       <c r="F854" s="4"/>
+      <c r="G854" s="4"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="5"/>
@@ -7454,6 +8377,7 @@
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
       <c r="F855" s="4"/>
+      <c r="G855" s="4"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="5"/>
@@ -7462,6 +8386,7 @@
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
       <c r="F856" s="4"/>
+      <c r="G856" s="4"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="5"/>
@@ -7470,6 +8395,7 @@
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
       <c r="F857" s="4"/>
+      <c r="G857" s="4"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="5"/>
@@ -7478,6 +8404,7 @@
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
       <c r="F858" s="4"/>
+      <c r="G858" s="4"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="5"/>
@@ -7486,6 +8413,7 @@
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
       <c r="F859" s="4"/>
+      <c r="G859" s="4"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="5"/>
@@ -7494,6 +8422,7 @@
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
       <c r="F860" s="4"/>
+      <c r="G860" s="4"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="5"/>
@@ -7502,6 +8431,7 @@
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
       <c r="F861" s="4"/>
+      <c r="G861" s="4"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="5"/>
@@ -7510,6 +8440,7 @@
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
       <c r="F862" s="4"/>
+      <c r="G862" s="4"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="5"/>
@@ -7518,6 +8449,7 @@
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
       <c r="F863" s="4"/>
+      <c r="G863" s="4"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="5"/>
@@ -7526,6 +8458,7 @@
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
       <c r="F864" s="4"/>
+      <c r="G864" s="4"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="5"/>
@@ -7534,6 +8467,7 @@
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
       <c r="F865" s="4"/>
+      <c r="G865" s="4"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="5"/>
@@ -7542,6 +8476,7 @@
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
       <c r="F866" s="4"/>
+      <c r="G866" s="4"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="5"/>
@@ -7550,6 +8485,7 @@
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
       <c r="F867" s="4"/>
+      <c r="G867" s="4"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="5"/>
@@ -7558,6 +8494,7 @@
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
       <c r="F868" s="4"/>
+      <c r="G868" s="4"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="5"/>
@@ -7566,6 +8503,7 @@
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
       <c r="F869" s="4"/>
+      <c r="G869" s="4"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="5"/>
@@ -7574,6 +8512,7 @@
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
       <c r="F870" s="4"/>
+      <c r="G870" s="4"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="5"/>
@@ -7582,6 +8521,7 @@
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
       <c r="F871" s="4"/>
+      <c r="G871" s="4"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="5"/>
@@ -7590,6 +8530,7 @@
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
       <c r="F872" s="4"/>
+      <c r="G872" s="4"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="5"/>
@@ -7598,6 +8539,7 @@
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
       <c r="F873" s="4"/>
+      <c r="G873" s="4"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="5"/>
@@ -7606,6 +8548,7 @@
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
       <c r="F874" s="4"/>
+      <c r="G874" s="4"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="5"/>
@@ -7614,6 +8557,7 @@
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
       <c r="F875" s="4"/>
+      <c r="G875" s="4"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="5"/>
@@ -7622,6 +8566,7 @@
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
       <c r="F876" s="4"/>
+      <c r="G876" s="4"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="5"/>
@@ -7630,6 +8575,7 @@
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
       <c r="F877" s="4"/>
+      <c r="G877" s="4"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="5"/>
@@ -7638,6 +8584,7 @@
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
       <c r="F878" s="4"/>
+      <c r="G878" s="4"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="5"/>
@@ -7646,6 +8593,7 @@
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
       <c r="F879" s="4"/>
+      <c r="G879" s="4"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="5"/>
@@ -7654,6 +8602,7 @@
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
       <c r="F880" s="4"/>
+      <c r="G880" s="4"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="5"/>
@@ -7662,6 +8611,7 @@
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
       <c r="F881" s="4"/>
+      <c r="G881" s="4"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="5"/>
@@ -7670,6 +8620,7 @@
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
       <c r="F882" s="4"/>
+      <c r="G882" s="4"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="5"/>
@@ -7678,6 +8629,7 @@
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
       <c r="F883" s="4"/>
+      <c r="G883" s="4"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="5"/>
@@ -7686,6 +8638,7 @@
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
       <c r="F884" s="4"/>
+      <c r="G884" s="4"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="5"/>
@@ -7694,6 +8647,7 @@
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
       <c r="F885" s="4"/>
+      <c r="G885" s="4"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="5"/>
@@ -7702,6 +8656,7 @@
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
       <c r="F886" s="4"/>
+      <c r="G886" s="4"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="5"/>
@@ -7710,6 +8665,7 @@
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
       <c r="F887" s="4"/>
+      <c r="G887" s="4"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="5"/>
@@ -7718,6 +8674,7 @@
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
       <c r="F888" s="4"/>
+      <c r="G888" s="4"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="5"/>
@@ -7726,6 +8683,7 @@
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
       <c r="F889" s="4"/>
+      <c r="G889" s="4"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="5"/>
@@ -7734,6 +8692,7 @@
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
       <c r="F890" s="4"/>
+      <c r="G890" s="4"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="5"/>
@@ -7742,6 +8701,7 @@
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
       <c r="F891" s="4"/>
+      <c r="G891" s="4"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="5"/>
@@ -7750,6 +8710,7 @@
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
       <c r="F892" s="4"/>
+      <c r="G892" s="4"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="5"/>
@@ -7758,6 +8719,7 @@
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
       <c r="F893" s="4"/>
+      <c r="G893" s="4"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="5"/>
@@ -7766,6 +8728,7 @@
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
       <c r="F894" s="4"/>
+      <c r="G894" s="4"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="5"/>
@@ -7774,6 +8737,7 @@
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
       <c r="F895" s="4"/>
+      <c r="G895" s="4"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="5"/>
@@ -7782,6 +8746,7 @@
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
       <c r="F896" s="4"/>
+      <c r="G896" s="4"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="5"/>
@@ -7790,6 +8755,7 @@
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
       <c r="F897" s="4"/>
+      <c r="G897" s="4"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="5"/>
@@ -7798,6 +8764,7 @@
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
       <c r="F898" s="4"/>
+      <c r="G898" s="4"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="5"/>
@@ -7806,6 +8773,7 @@
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
       <c r="F899" s="4"/>
+      <c r="G899" s="4"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="5"/>
@@ -7814,6 +8782,7 @@
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
       <c r="F900" s="4"/>
+      <c r="G900" s="4"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="5"/>
@@ -7822,6 +8791,7 @@
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
       <c r="F901" s="4"/>
+      <c r="G901" s="4"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="5"/>
@@ -7830,6 +8800,7 @@
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
       <c r="F902" s="4"/>
+      <c r="G902" s="4"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="5"/>
@@ -7838,6 +8809,7 @@
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
       <c r="F903" s="4"/>
+      <c r="G903" s="4"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="5"/>
@@ -7846,6 +8818,7 @@
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
       <c r="F904" s="4"/>
+      <c r="G904" s="4"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="5"/>
@@ -7854,6 +8827,7 @@
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
       <c r="F905" s="4"/>
+      <c r="G905" s="4"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="5"/>
@@ -7862,6 +8836,7 @@
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
       <c r="F906" s="4"/>
+      <c r="G906" s="4"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="5"/>
@@ -7870,6 +8845,7 @@
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
       <c r="F907" s="4"/>
+      <c r="G907" s="4"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="5"/>
@@ -7878,6 +8854,7 @@
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
       <c r="F908" s="4"/>
+      <c r="G908" s="4"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="5"/>
@@ -7886,6 +8863,7 @@
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
       <c r="F909" s="4"/>
+      <c r="G909" s="4"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="5"/>
@@ -7894,6 +8872,7 @@
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
       <c r="F910" s="4"/>
+      <c r="G910" s="4"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="5"/>
@@ -7902,6 +8881,7 @@
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
       <c r="F911" s="4"/>
+      <c r="G911" s="4"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="5"/>
@@ -7910,6 +8890,7 @@
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
       <c r="F912" s="4"/>
+      <c r="G912" s="4"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="5"/>
@@ -7918,6 +8899,7 @@
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
       <c r="F913" s="4"/>
+      <c r="G913" s="4"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="5"/>
@@ -7926,6 +8908,7 @@
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
       <c r="F914" s="4"/>
+      <c r="G914" s="4"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="5"/>
@@ -7934,6 +8917,7 @@
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
       <c r="F915" s="4"/>
+      <c r="G915" s="4"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="5"/>
@@ -7942,6 +8926,7 @@
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
       <c r="F916" s="4"/>
+      <c r="G916" s="4"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="5"/>
@@ -7950,6 +8935,7 @@
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
       <c r="F917" s="4"/>
+      <c r="G917" s="4"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="5"/>
@@ -7958,6 +8944,7 @@
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
       <c r="F918" s="4"/>
+      <c r="G918" s="4"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="5"/>
@@ -7966,6 +8953,7 @@
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
       <c r="F919" s="4"/>
+      <c r="G919" s="4"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="5"/>
@@ -7974,6 +8962,7 @@
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
       <c r="F920" s="4"/>
+      <c r="G920" s="4"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="5"/>
@@ -7982,6 +8971,7 @@
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
       <c r="F921" s="4"/>
+      <c r="G921" s="4"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="5"/>
@@ -7990,6 +8980,7 @@
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
       <c r="F922" s="4"/>
+      <c r="G922" s="4"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="5"/>
@@ -7998,6 +8989,7 @@
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
       <c r="F923" s="4"/>
+      <c r="G923" s="4"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="5"/>
@@ -8006,6 +8998,7 @@
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
       <c r="F924" s="4"/>
+      <c r="G924" s="4"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="5"/>
@@ -8014,6 +9007,7 @@
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
       <c r="F925" s="4"/>
+      <c r="G925" s="4"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="5"/>
@@ -8022,6 +9016,7 @@
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
       <c r="F926" s="4"/>
+      <c r="G926" s="4"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="5"/>
@@ -8030,6 +9025,7 @@
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
       <c r="F927" s="4"/>
+      <c r="G927" s="4"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="5"/>
@@ -8038,6 +9034,7 @@
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
       <c r="F928" s="4"/>
+      <c r="G928" s="4"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="5"/>
@@ -8046,6 +9043,7 @@
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
       <c r="F929" s="4"/>
+      <c r="G929" s="4"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="5"/>
@@ -8054,6 +9052,7 @@
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
       <c r="F930" s="4"/>
+      <c r="G930" s="4"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="5"/>
@@ -8062,6 +9061,7 @@
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
       <c r="F931" s="4"/>
+      <c r="G931" s="4"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="5"/>
@@ -8070,6 +9070,7 @@
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
       <c r="F932" s="4"/>
+      <c r="G932" s="4"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="5"/>
@@ -8078,6 +9079,7 @@
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
       <c r="F933" s="4"/>
+      <c r="G933" s="4"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="5"/>
@@ -8086,6 +9088,7 @@
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
       <c r="F934" s="4"/>
+      <c r="G934" s="4"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="5"/>
@@ -8094,6 +9097,7 @@
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
       <c r="F935" s="4"/>
+      <c r="G935" s="4"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="5"/>
@@ -8102,6 +9106,7 @@
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
       <c r="F936" s="4"/>
+      <c r="G936" s="4"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="5"/>
@@ -8110,6 +9115,7 @@
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
       <c r="F937" s="4"/>
+      <c r="G937" s="4"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="5"/>
@@ -8118,6 +9124,7 @@
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
       <c r="F938" s="4"/>
+      <c r="G938" s="4"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="5"/>
@@ -8126,6 +9133,7 @@
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
       <c r="F939" s="4"/>
+      <c r="G939" s="4"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="5"/>
@@ -8134,6 +9142,7 @@
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
       <c r="F940" s="4"/>
+      <c r="G940" s="4"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="5"/>
@@ -8142,6 +9151,7 @@
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
       <c r="F941" s="4"/>
+      <c r="G941" s="4"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="5"/>
@@ -8150,6 +9160,7 @@
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
       <c r="F942" s="4"/>
+      <c r="G942" s="4"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="5"/>
@@ -8158,6 +9169,7 @@
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
       <c r="F943" s="4"/>
+      <c r="G943" s="4"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="5"/>
@@ -8166,6 +9178,7 @@
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
       <c r="F944" s="4"/>
+      <c r="G944" s="4"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="5"/>
@@ -8174,6 +9187,7 @@
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
       <c r="F945" s="4"/>
+      <c r="G945" s="4"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="5"/>
@@ -8182,6 +9196,7 @@
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
       <c r="F946" s="4"/>
+      <c r="G946" s="4"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="5"/>
@@ -8190,6 +9205,7 @@
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
       <c r="F947" s="4"/>
+      <c r="G947" s="4"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="5"/>
@@ -8198,6 +9214,7 @@
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
       <c r="F948" s="4"/>
+      <c r="G948" s="4"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="5"/>
@@ -8206,6 +9223,7 @@
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
       <c r="F949" s="4"/>
+      <c r="G949" s="4"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="5"/>
@@ -8214,6 +9232,7 @@
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
       <c r="F950" s="4"/>
+      <c r="G950" s="4"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="5"/>
@@ -8222,6 +9241,7 @@
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
       <c r="F951" s="4"/>
+      <c r="G951" s="4"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="5"/>
@@ -8230,6 +9250,7 @@
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
       <c r="F952" s="4"/>
+      <c r="G952" s="4"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="5"/>
@@ -8238,6 +9259,7 @@
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
       <c r="F953" s="4"/>
+      <c r="G953" s="4"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="5"/>
@@ -8246,6 +9268,7 @@
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
       <c r="F954" s="4"/>
+      <c r="G954" s="4"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="5"/>
@@ -8254,6 +9277,7 @@
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
       <c r="F955" s="4"/>
+      <c r="G955" s="4"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="5"/>
@@ -8262,6 +9286,7 @@
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
       <c r="F956" s="4"/>
+      <c r="G956" s="4"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="5"/>
@@ -8270,6 +9295,7 @@
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
       <c r="F957" s="4"/>
+      <c r="G957" s="4"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="5"/>
@@ -8278,6 +9304,7 @@
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
       <c r="F958" s="4"/>
+      <c r="G958" s="4"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="5"/>
@@ -8286,6 +9313,7 @@
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
       <c r="F959" s="4"/>
+      <c r="G959" s="4"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="5"/>
@@ -8294,6 +9322,7 @@
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
       <c r="F960" s="4"/>
+      <c r="G960" s="4"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="5"/>
@@ -8302,6 +9331,7 @@
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
       <c r="F961" s="4"/>
+      <c r="G961" s="4"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="5"/>
@@ -8310,6 +9340,7 @@
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
       <c r="F962" s="4"/>
+      <c r="G962" s="4"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="5"/>
@@ -8318,6 +9349,7 @@
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
       <c r="F963" s="4"/>
+      <c r="G963" s="4"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="5"/>
@@ -8326,6 +9358,7 @@
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
       <c r="F964" s="4"/>
+      <c r="G964" s="4"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="5"/>
@@ -8334,6 +9367,7 @@
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
       <c r="F965" s="4"/>
+      <c r="G965" s="4"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="5"/>
@@ -8342,6 +9376,7 @@
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
       <c r="F966" s="4"/>
+      <c r="G966" s="4"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="5"/>
@@ -8350,6 +9385,7 @@
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
       <c r="F967" s="4"/>
+      <c r="G967" s="4"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="5"/>
@@ -8358,6 +9394,7 @@
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
       <c r="F968" s="4"/>
+      <c r="G968" s="4"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="5"/>
@@ -8366,6 +9403,7 @@
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
       <c r="F969" s="4"/>
+      <c r="G969" s="4"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="5"/>
@@ -8374,6 +9412,7 @@
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
       <c r="F970" s="4"/>
+      <c r="G970" s="4"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="5"/>
@@ -8382,6 +9421,7 @@
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
       <c r="F971" s="4"/>
+      <c r="G971" s="4"/>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="5"/>
@@ -8390,6 +9430,7 @@
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
       <c r="F972" s="4"/>
+      <c r="G972" s="4"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="5"/>
@@ -8398,6 +9439,7 @@
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
       <c r="F973" s="4"/>
+      <c r="G973" s="4"/>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="5"/>
@@ -8406,6 +9448,7 @@
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
       <c r="F974" s="4"/>
+      <c r="G974" s="4"/>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="5"/>
@@ -8414,6 +9457,7 @@
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
       <c r="F975" s="4"/>
+      <c r="G975" s="4"/>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="5"/>
@@ -8422,6 +9466,7 @@
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
       <c r="F976" s="4"/>
+      <c r="G976" s="4"/>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="5"/>
@@ -8430,6 +9475,7 @@
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
       <c r="F977" s="4"/>
+      <c r="G977" s="4"/>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="5"/>
@@ -8438,6 +9484,7 @@
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
       <c r="F978" s="4"/>
+      <c r="G978" s="4"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="5"/>
@@ -8446,6 +9493,7 @@
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
       <c r="F979" s="4"/>
+      <c r="G979" s="4"/>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="5"/>
@@ -8454,6 +9502,7 @@
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
       <c r="F980" s="4"/>
+      <c r="G980" s="4"/>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="5"/>
@@ -8462,6 +9511,7 @@
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
       <c r="F981" s="4"/>
+      <c r="G981" s="4"/>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="5"/>
@@ -8470,6 +9520,7 @@
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
       <c r="F982" s="4"/>
+      <c r="G982" s="4"/>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="5"/>
@@ -8478,6 +9529,7 @@
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
       <c r="F983" s="4"/>
+      <c r="G983" s="4"/>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="5"/>
@@ -8486,6 +9538,7 @@
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
       <c r="F984" s="4"/>
+      <c r="G984" s="4"/>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="5"/>
@@ -8494,6 +9547,7 @@
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
       <c r="F985" s="4"/>
+      <c r="G985" s="4"/>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="5"/>
@@ -8502,6 +9556,7 @@
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
       <c r="F986" s="4"/>
+      <c r="G986" s="4"/>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="5"/>
@@ -8510,6 +9565,7 @@
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
       <c r="F987" s="4"/>
+      <c r="G987" s="4"/>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="5"/>
@@ -8518,6 +9574,7 @@
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
       <c r="F988" s="4"/>
+      <c r="G988" s="4"/>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="5"/>
@@ -8526,6 +9583,7 @@
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
       <c r="F989" s="4"/>
+      <c r="G989" s="4"/>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="5"/>
@@ -8534,6 +9592,7 @@
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
       <c r="F990" s="4"/>
+      <c r="G990" s="4"/>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="5"/>
@@ -8542,6 +9601,7 @@
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
       <c r="F991" s="4"/>
+      <c r="G991" s="4"/>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="5"/>
@@ -8550,6 +9610,7 @@
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
       <c r="F992" s="4"/>
+      <c r="G992" s="4"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="5"/>
@@ -8558,6 +9619,7 @@
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
       <c r="F993" s="4"/>
+      <c r="G993" s="4"/>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="5"/>
@@ -8566,6 +9628,7 @@
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
       <c r="F994" s="4"/>
+      <c r="G994" s="4"/>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="5"/>
@@ -8574,6 +9637,7 @@
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>
       <c r="F995" s="4"/>
+      <c r="G995" s="4"/>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="5"/>
@@ -8582,6 +9646,7 @@
       <c r="D996" s="4"/>
       <c r="E996" s="4"/>
       <c r="F996" s="4"/>
+      <c r="G996" s="4"/>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="5"/>
@@ -8590,6 +9655,7 @@
       <c r="D997" s="4"/>
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
+      <c r="G997" s="4"/>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="5"/>
@@ -8598,6 +9664,7 @@
       <c r="D998" s="4"/>
       <c r="E998" s="4"/>
       <c r="F998" s="4"/>
+      <c r="G998" s="4"/>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="5"/>
@@ -8606,6 +9673,7 @@
       <c r="D999" s="4"/>
       <c r="E999" s="4"/>
       <c r="F999" s="4"/>
+      <c r="G999" s="4"/>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="5"/>
@@ -8614,6 +9682,7 @@
       <c r="D1000" s="4"/>
       <c r="E1000" s="4"/>
       <c r="F1000" s="4"/>
+      <c r="G1000" s="4"/>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="5"/>
@@ -8622,6 +9691,7 @@
       <c r="D1001" s="4"/>
       <c r="E1001" s="4"/>
       <c r="F1001" s="4"/>
+      <c r="G1001" s="4"/>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="5"/>
@@ -8630,6 +9700,7 @@
       <c r="D1002" s="4"/>
       <c r="E1002" s="4"/>
       <c r="F1002" s="4"/>
+      <c r="G1002" s="4"/>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="5"/>
@@ -8638,6 +9709,7 @@
       <c r="D1003" s="4"/>
       <c r="E1003" s="4"/>
       <c r="F1003" s="4"/>
+      <c r="G1003" s="4"/>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="5"/>
@@ -8646,6 +9718,7 @@
       <c r="D1004" s="4"/>
       <c r="E1004" s="4"/>
       <c r="F1004" s="4"/>
+      <c r="G1004" s="4"/>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="5"/>
@@ -8654,6 +9727,7 @@
       <c r="D1005" s="4"/>
       <c r="E1005" s="4"/>
       <c r="F1005" s="4"/>
+      <c r="G1005" s="4"/>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="5"/>
@@ -8662,6 +9736,7 @@
       <c r="D1006" s="4"/>
       <c r="E1006" s="4"/>
       <c r="F1006" s="4"/>
+      <c r="G1006" s="4"/>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="5"/>
@@ -8670,6 +9745,7 @@
       <c r="D1007" s="4"/>
       <c r="E1007" s="4"/>
       <c r="F1007" s="4"/>
+      <c r="G1007" s="4"/>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="5"/>
@@ -8678,6 +9754,7 @@
       <c r="D1008" s="4"/>
       <c r="E1008" s="4"/>
       <c r="F1008" s="4"/>
+      <c r="G1008" s="4"/>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="5"/>
@@ -8686,6 +9763,7 @@
       <c r="D1009" s="4"/>
       <c r="E1009" s="4"/>
       <c r="F1009" s="4"/>
+      <c r="G1009" s="4"/>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="5"/>
@@ -8694,6 +9772,7 @@
       <c r="D1010" s="4"/>
       <c r="E1010" s="4"/>
       <c r="F1010" s="4"/>
+      <c r="G1010" s="4"/>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="5"/>
@@ -8702,6 +9781,7 @@
       <c r="D1011" s="4"/>
       <c r="E1011" s="4"/>
       <c r="F1011" s="4"/>
+      <c r="G1011" s="4"/>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="5"/>
@@ -8710,6 +9790,7 @@
       <c r="D1012" s="4"/>
       <c r="E1012" s="4"/>
       <c r="F1012" s="4"/>
+      <c r="G1012" s="4"/>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="5"/>
@@ -8718,6 +9799,7 @@
       <c r="D1013" s="4"/>
       <c r="E1013" s="4"/>
       <c r="F1013" s="4"/>
+      <c r="G1013" s="4"/>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="5"/>
@@ -8726,6 +9808,7 @@
       <c r="D1014" s="4"/>
       <c r="E1014" s="4"/>
       <c r="F1014" s="4"/>
+      <c r="G1014" s="4"/>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="5"/>
@@ -8734,6 +9817,7 @@
       <c r="D1015" s="4"/>
       <c r="E1015" s="4"/>
       <c r="F1015" s="4"/>
+      <c r="G1015" s="4"/>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="5"/>
@@ -8742,6 +9826,7 @@
       <c r="D1016" s="4"/>
       <c r="E1016" s="4"/>
       <c r="F1016" s="4"/>
+      <c r="G1016" s="4"/>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="5"/>
@@ -8750,6 +9835,7 @@
       <c r="D1017" s="4"/>
       <c r="E1017" s="4"/>
       <c r="F1017" s="4"/>
+      <c r="G1017" s="4"/>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="5"/>
@@ -8758,6 +9844,7 @@
       <c r="D1018" s="4"/>
       <c r="E1018" s="4"/>
       <c r="F1018" s="4"/>
+      <c r="G1018" s="4"/>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="5"/>
@@ -8766,6 +9853,7 @@
       <c r="D1019" s="4"/>
       <c r="E1019" s="4"/>
       <c r="F1019" s="4"/>
+      <c r="G1019" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t xml:space="preserve">Judo</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">byte[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UUID</t>
   </si>
   <si>
     <t xml:space="preserve">java.sql.Blob</t>
@@ -378,7 +375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -388,7 +385,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="21.9"/>
@@ -908,9 +905,11 @@
         <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>36</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
@@ -922,12 +921,14 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>36</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
@@ -939,12 +940,14 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>36</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
@@ -956,12 +959,14 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>36</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
@@ -973,7 +978,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>41</v>

--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t xml:space="preserve">Judo</t>
   </si>
@@ -121,6 +121,9 @@
     <t xml:space="preserve">DECIMAL</t>
   </si>
   <si>
+    <t xml:space="preserve">#contraints:precision</t>
+  </si>
+  <si>
     <t xml:space="preserve">float</t>
   </si>
   <si>
@@ -142,10 +145,16 @@
     <t xml:space="preserve">java.math.BigDecimal</t>
   </si>
   <si>
+    <t xml:space="preserve">#contraints:scale</t>
+  </si>
+  <si>
     <t xml:space="preserve">java.lang.String</t>
   </si>
   <si>
     <t xml:space="preserve">VARCHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#contraints:maxLength</t>
   </si>
   <si>
     <t xml:space="preserve">boolean</t>
@@ -382,10 +391,10 @@
   <dimension ref="A1:G1019"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="21.9"/>
@@ -745,8 +754,8 @@
         <v>32</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4" t="n">
-        <v>18</v>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -760,16 +769,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>6</v>
@@ -777,16 +786,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>6</v>
@@ -794,16 +803,16 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" s="4" t="n">
         <v>8</v>
@@ -811,16 +820,16 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>8</v>
@@ -828,20 +837,20 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="3" t="n">
-        <v>64</v>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>20</v>
+      <c r="D26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>3</v>
@@ -849,18 +858,18 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>255</v>
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G27" s="4" t="n">
         <v>12</v>
@@ -868,16 +877,16 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G28" s="4" t="n">
         <v>16</v>
@@ -885,16 +894,16 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>16</v>
@@ -902,10 +911,10 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>36</v>
@@ -913,7 +922,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G30" s="4" t="n">
         <v>12</v>
@@ -921,10 +930,10 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>36</v>
@@ -932,7 +941,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>12</v>
@@ -940,10 +949,10 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>36</v>
@@ -951,7 +960,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G32" s="4" t="n">
         <v>12</v>
@@ -959,10 +968,10 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>36</v>
@@ -970,7 +979,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G33" s="4" t="n">
         <v>12</v>
@@ -978,10 +987,10 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>4095</v>
@@ -989,7 +998,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G34" s="4" t="n">
         <v>12</v>

--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Hsqldb.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">DECIMAL</t>
   </si>
   <si>
-    <t xml:space="preserve">#contraints:precision</t>
+    <t xml:space="preserve">#constraints:precision</t>
   </si>
   <si>
     <t xml:space="preserve">float</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">java.math.BigDecimal</t>
   </si>
   <si>
-    <t xml:space="preserve">#contraints:scale</t>
+    <t xml:space="preserve">#constraints:scale</t>
   </si>
   <si>
     <t xml:space="preserve">java.lang.String</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">VARCHAR</t>
   </si>
   <si>
-    <t xml:space="preserve">#contraints:maxLength</t>
+    <t xml:space="preserve">#constraints:maxLength</t>
   </si>
   <si>
     <t xml:space="preserve">boolean</t>
@@ -391,10 +391,10 @@
   <dimension ref="A1:G1019"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="21.9"/>
